--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_05_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_05_beg.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Maria has grown in popularity, and popularity brings problems. Zofia advises her to quit while she’s ahead. They argue, and Zofia slams the door.
+    <t xml:space="preserve">Maria has grown in popularity, and popularity brings problems. Zofia advises her to quit while she's ahead. They argue, and Zofia slams the door.
 </t>
   </si>
   <si>
